--- a/EC3-C++_Fault_Detection/tests/results/RealScenarioTestResults.xlsx
+++ b/EC3-C++_Fault_Detection/tests/results/RealScenarioTestResults.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="215">
   <si>
     <t>Random Test Scenario</t>
   </si>
@@ -343,6 +343,9 @@
     <t>Absolute Frequency</t>
   </si>
   <si>
+    <t>Change of Differential Resistance</t>
+  </si>
+  <si>
     <t>Decrease of Forward Conducting-State Voltage</t>
   </si>
   <si>
@@ -473,9 +476,6 @@
   </si>
   <si>
     <t>cm2</t>
-  </si>
-  <si>
-    <t>Change of Differential Resistance</t>
   </si>
   <si>
     <t>Increase of Forward Conducting-State Voltage</t>
@@ -1806,7 +1806,7 @@
         <s v="8 years, 274 days and 12 hours"/>
         <s v="34 years, 349 days and 12 hours"/>
         <s v="14 years, 164 days and 12 hours"/>
-        <s v="8 years, 91 days and 12 hours"/>
+        <s v="2 years, 338 days and 12 hours"/>
         <s v="14 years, 43 days and 12 hours"/>
         <s v="12 years, 3 days and 12 hours"/>
         <s v="13 years, 51 days and 12 hours"/>
@@ -1825,7 +1825,7 @@
         <n v="74004.0"/>
         <n v="305124.0"/>
         <n v="125724.0"/>
-        <n v="74916.0"/>
+        <n v="18588.0"/>
         <n v="127428.0"/>
         <n v="112788.0"/>
         <n v="121596.0"/>
@@ -1866,10 +1866,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
         <n v="2.0"/>
         <n v="6.0"/>
+        <n v="4.0"/>
         <n v="10.0"/>
         <n v="1.0"/>
         <n v="3.0"/>
-        <n v="4.0"/>
         <n v="5.0"/>
         <n v="8.0"/>
         <n v="9.0"/>
@@ -1885,16 +1885,17 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
         <n v="305124.0"/>
         <n v="112788.0"/>
+        <n v="18576.0"/>
         <n v="477636.0"/>
         <n v="74004.0"/>
         <n v="125712.0"/>
-        <n v="89256.0"/>
         <n v="127416.0"/>
         <n v="275580.0"/>
         <n v="212892.0"/>
         <n v="131220.0"/>
         <n v="172080.0"/>
         <n v="185388.0"/>
+        <n v="89256.0"/>
         <n v="201036.0"/>
         <n v="121596.0"/>
         <n v="95076.0"/>
@@ -1916,6 +1917,7 @@
       <sharedItems>
         <s v="Decrease of Reverse Breakdown Voltage"/>
         <s v="Short-Circuit"/>
+        <s v="Change of Differential Resistance"/>
         <s v="Decrease of Forward Conducting-State Voltage"/>
         <s v="Increase of Zener Voltage"/>
         <s v="Open"/>
@@ -1944,16 +1946,16 @@
     <cacheField name="Detectable Fuse Type" numFmtId="10">
       <sharedItems>
         <s v="yes"/>
+        <s v="outside_scope"/>
         <s v="impactless"/>
-        <s v="outside_scope"/>
         <s v="no"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Detectable Keep Power Type" numFmtId="10">
       <sharedItems>
         <s v="yes"/>
+        <s v="no"/>
         <s v="impactless"/>
-        <s v="no"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Probability Rank" numFmtId="3">
@@ -2004,10 +2006,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
         <n v="2.0"/>
         <n v="6.0"/>
+        <n v="4.0"/>
         <n v="10.0"/>
         <n v="1.0"/>
         <n v="3.0"/>
-        <n v="4.0"/>
         <n v="5.0"/>
         <n v="8.0"/>
         <n v="9.0"/>
@@ -2023,16 +2025,17 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
         <n v="305124.0"/>
         <n v="112788.0"/>
+        <n v="18576.0"/>
         <n v="477636.0"/>
         <n v="74004.0"/>
         <n v="125712.0"/>
-        <n v="89256.0"/>
         <n v="127416.0"/>
         <n v="275580.0"/>
         <n v="212892.0"/>
         <n v="131220.0"/>
         <n v="172080.0"/>
         <n v="185388.0"/>
+        <n v="89256.0"/>
         <n v="201036.0"/>
         <n v="121596.0"/>
         <n v="95076.0"/>
@@ -2054,6 +2057,7 @@
       <sharedItems>
         <s v="Decrease of Reverse Breakdown Voltage"/>
         <s v="Short-Circuit"/>
+        <s v="Change of Differential Resistance"/>
         <s v="Decrease of Forward Conducting-State Voltage"/>
         <s v="Increase of Zener Voltage"/>
         <s v="Open"/>
@@ -2082,16 +2086,16 @@
     <cacheField name="Detectable Fuse Type" numFmtId="10">
       <sharedItems>
         <s v="yes"/>
+        <s v="outside_scope"/>
         <s v="impactless"/>
-        <s v="outside_scope"/>
         <s v="no"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Detectable Keep Power Type" numFmtId="10">
       <sharedItems>
         <s v="yes"/>
+        <s v="no"/>
         <s v="impactless"/>
-        <s v="no"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Probability Rank" numFmtId="3">
@@ -2390,6 +2394,7 @@
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
+        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2416,6 +2421,7 @@
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2508,7 +2514,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Consolidated Results 3" cacheId="2" dataCaption="" compact="0" compactData="0">
-  <location ref="B63:D68" firstHeaderRow="0" firstDataRow="2" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <location ref="B73:D78" firstHeaderRow="0" firstDataRow="2" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields>
     <pivotField name="Test Number" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
@@ -2550,32 +2556,34 @@
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
+        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField name="Failed Component" axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField name="DZ_Sys Fault Modes" axis="axisRow" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+    <pivotField name="K_Sys Fault Modes" axis="axisRow" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items>
         <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
         <item x="3"/>
         <item x="6"/>
+        <item x="0"/>
+        <item x="4"/>
         <item x="7"/>
-        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="11"/>
         <item x="10"/>
+        <item x="1"/>
         <item x="9"/>
-        <item x="1"/>
-        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2640,139 +2648,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Consolidated Results 4" cacheId="2" dataCaption="" compact="0" compactData="0">
-  <location ref="B73:D78" firstHeaderRow="0" firstDataRow="2" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields>
-    <pivotField name="Test Number" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Failure Time (h)" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Failed Component" axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="K_Sys Fault Modes" axis="axisRow" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Fault Mode Probability" compact="0" numFmtId="10" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Detectable Fuse Type" compact="0" numFmtId="10" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Detectable Keep Power Type" compact="0" numFmtId="10" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Probability Rank" dataField="1" compact="0" numFmtId="3" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields>
-    <field x="3"/>
-  </rowFields>
-  <colFields>
-    <field x="-2"/>
-  </colFields>
-  <pageFields>
-    <pageField fld="2"/>
-  </pageFields>
-  <dataFields>
-    <dataField name="Absolute Frequency" fld="3" subtotal="count" baseField="0"/>
-    <dataField name="Probability Rank" fld="7" subtotal="average" baseField="0"/>
-  </dataFields>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DZ_Sys" cacheId="3" dataCaption="" compact="0" compactData="0">
   <location ref="B18:F24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields>
@@ -3535,43 +3410,43 @@
     </row>
     <row r="5">
       <c r="B5" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>18</v>
@@ -3622,16 +3497,16 @@
         <v>1.0</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -3673,16 +3548,16 @@
         <v>1.0</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -3724,16 +3599,16 @@
         <v>1.0</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
@@ -3775,16 +3650,16 @@
         <v>1.0</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
@@ -3826,16 +3701,16 @@
         <v>1.0</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -3877,16 +3752,16 @@
         <v>1.0</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -3928,16 +3803,16 @@
         <v>1.0</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -3979,16 +3854,16 @@
         <v>1.0</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P13" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="Q13" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -4030,16 +3905,16 @@
         <v>1.0</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P14" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="Q14" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -4081,16 +3956,16 @@
         <v>1.0</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -4132,16 +4007,16 @@
         <v>1.0</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P16" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="Q16" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17">
@@ -4183,16 +4058,16 @@
         <v>1.0</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P17" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="Q17" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
@@ -4234,16 +4109,16 @@
         <v>1.0</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="Q18" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19">
@@ -4285,16 +4160,16 @@
         <v>1.0</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
@@ -4336,16 +4211,16 @@
         <v>1.0</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21">
@@ -4387,16 +4262,16 @@
         <v>1.0</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
@@ -4438,16 +4313,16 @@
         <v>1.0</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
@@ -4489,16 +4364,16 @@
         <v>1.0</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24">
@@ -4540,16 +4415,16 @@
         <v>1.0</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25">
@@ -4591,16 +4466,16 @@
         <v>1.0</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26">
@@ -4642,16 +4517,16 @@
         <v>1.0</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27">
@@ -4693,16 +4568,16 @@
         <v>1.0</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O27" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P27" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P27" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="Q27" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -4744,16 +4619,16 @@
         <v>1.0</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P28" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P28" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="Q28" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
@@ -4795,16 +4670,16 @@
         <v>1.0</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
@@ -4846,16 +4721,16 @@
         <v>1.0</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31">
@@ -4897,16 +4772,16 @@
         <v>1.0</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32">
@@ -4948,16 +4823,16 @@
         <v>1.0</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5116,19 +4991,19 @@
         <v>24</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F14" s="21">
         <v>0.04375</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J14" s="19">
         <v>6167.0</v>
@@ -5575,13 +5450,13 @@
         <v>0.03333</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J14" s="19">
         <v>25427.0</v>
@@ -5997,19 +5872,19 @@
         <v>25</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F12" s="21">
         <v>0.028889</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>203</v>
@@ -6049,19 +5924,19 @@
         <v>24</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F13" s="21">
         <v>0.45</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J13" s="41">
         <v>10477.0</v>
@@ -6390,7 +6265,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>6243.0</v>
+        <v>1549.0</v>
       </c>
     </row>
     <row r="7">
@@ -6468,31 +6343,32 @@
         <v>4.0</v>
       </c>
       <c r="B12" s="19">
-        <v>6242.0</v>
+        <v>1548.0</v>
       </c>
       <c r="C12" s="19">
-        <v>89256.0</v>
+        <f>B12*'Simulation Params'!$C$16</f>
+        <v>18576</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" s="21">
-        <v>0.45</v>
+        <v>0.04375</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J12" s="19">
-        <v>6243.0</v>
+        <v>1549.0</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>201</v>
@@ -6963,19 +6839,19 @@
         <v>24</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12" s="21">
         <v>0.45</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J12" s="19">
         <v>10619.0</v>
@@ -7408,19 +7284,19 @@
         <v>26</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" s="21">
         <v>0.51</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J12" s="19">
         <v>9399.0</v>
@@ -7852,19 +7728,19 @@
         <v>25</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F12" s="21">
         <v>0.45</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J12" s="19">
         <v>10133.0</v>
@@ -8296,25 +8172,25 @@
         <v>24</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12" s="21">
         <v>0.45</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J12" s="19">
         <v>17741.0</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" s="19" t="b">
         <f>if(I12="cm3", TRUE, FALSE)</f>
@@ -8740,25 +8616,25 @@
         <v>24</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12" s="21">
         <v>0.45</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J12" s="19">
         <v>17741.0</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" s="19" t="b">
         <f>if(I12="cm3", TRUE, FALSE)</f>
@@ -9489,25 +9365,25 @@
         <v>27</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F12" s="21">
         <v>0.08333</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>203</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" s="19" t="b">
         <f t="shared" ref="L12:L14" si="1">if(I12="cm3", TRUE, FALSE)</f>
@@ -9541,25 +9417,25 @@
         <v>24</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F13" s="21">
         <v>0.04375</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J13" s="19" t="s">
         <v>203</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L13" s="19" t="b">
         <f t="shared" si="1"/>
@@ -9593,19 +9469,19 @@
         <v>25</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F14" s="21">
         <v>0.115903</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J14" s="19">
         <v>44802.0</v>
@@ -10009,19 +9885,19 @@
         <v>24</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12" s="21">
         <v>0.45</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J12" s="19">
         <v>10935.0</v>
@@ -10460,19 +10336,19 @@
         <v>24</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" s="21">
         <v>0.2</v>
       </c>
       <c r="G12" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>122</v>
-      </c>
       <c r="I12" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J12" s="19">
         <v>15449.0</v>
@@ -10905,19 +10781,19 @@
         <v>25</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F12" s="21">
         <v>0.078571</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>203</v>
@@ -10957,19 +10833,19 @@
         <v>28</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F13" s="21">
         <v>0.08333</v>
       </c>
       <c r="G13" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>122</v>
-      </c>
       <c r="I13" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J13" s="5">
         <v>25065.0</v>
@@ -11386,19 +11262,19 @@
         <v>24</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12" s="21">
         <v>0.45</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J12" s="19">
         <v>14341.0</v>
@@ -11831,19 +11707,19 @@
         <v>25</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F12" s="21">
         <v>0.014444</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J12" s="19">
         <v>7924.0</v>
@@ -12519,11 +12395,11 @@
       </c>
       <c r="D11" s="56" t="str">
         <f t="shared" si="2"/>
-        <v>8 years, 91 days and 12 hours</v>
+        <v>2 years, 338 days and 12 hours</v>
       </c>
       <c r="E11" s="56">
         <f>INDIRECT("'Test"&amp;$B11&amp;"'!"&amp;E$3)*'Simulation Params'!$C$16</f>
-        <v>74916</v>
+        <v>18588</v>
       </c>
       <c r="F11" s="56">
         <f t="shared" si="3"/>
@@ -12943,32 +12819,32 @@
     </row>
     <row r="29">
       <c r="B29" s="69">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
-        <v>10</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
+        <v>4</v>
       </c>
       <c r="C29" s="70">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),477636.0)</f>
-        <v>477636</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18576.0)</f>
+        <v>18576</v>
       </c>
       <c r="D29" s="70" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DZ_Sys")</f>
         <v>DZ_Sys</v>
       </c>
       <c r="E29" s="71" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Decrease of Forward Conducting-State Voltage")</f>
-        <v>Decrease of Forward Conducting-State Voltage</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Change of Differential Resistance")</f>
+        <v>Change of Differential Resistance</v>
       </c>
       <c r="F29" s="72">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.04375)</f>
         <v>0.04375</v>
       </c>
       <c r="G29" s="72" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"impactless")</f>
-        <v>impactless</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"outside_scope")</f>
+        <v>outside_scope</v>
       </c>
       <c r="H29" s="72" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"impactless")</f>
-        <v>impactless</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"no")</f>
+        <v>no</v>
       </c>
       <c r="I29" s="73">
         <f t="shared" si="5"/>
@@ -12989,32 +12865,32 @@
     </row>
     <row r="30">
       <c r="B30" s="69">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
+        <v>10</v>
       </c>
       <c r="C30" s="70">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74004.0)</f>
-        <v>74004</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),477636.0)</f>
+        <v>477636</v>
       </c>
       <c r="D30" s="70" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DZ_Sys")</f>
         <v>DZ_Sys</v>
       </c>
       <c r="E30" s="71" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Increase of Zener Voltage")</f>
-        <v>Increase of Zener Voltage</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Decrease of Forward Conducting-State Voltage")</f>
+        <v>Decrease of Forward Conducting-State Voltage</v>
       </c>
       <c r="F30" s="72">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.04375)</f>
         <v>0.04375</v>
       </c>
       <c r="G30" s="72" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"outside_scope")</f>
-        <v>outside_scope</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"impactless")</f>
+        <v>impactless</v>
       </c>
       <c r="H30" s="72" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"no")</f>
-        <v>no</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"impactless")</f>
+        <v>impactless</v>
       </c>
       <c r="I30" s="73">
         <f t="shared" si="5"/>
@@ -13035,24 +12911,24 @@
     </row>
     <row r="31">
       <c r="B31" s="69">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="C31" s="70">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),125712.0)</f>
-        <v>125712</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74004.0)</f>
+        <v>74004</v>
       </c>
       <c r="D31" s="70" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DZ_Sys")</f>
         <v>DZ_Sys</v>
       </c>
       <c r="E31" s="71" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Open")</f>
-        <v>Open</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Increase of Zener Voltage")</f>
+        <v>Increase of Zener Voltage</v>
       </c>
       <c r="F31" s="72">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.45)</f>
-        <v>0.45</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.04375)</f>
+        <v>0.04375</v>
       </c>
       <c r="G31" s="72" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"outside_scope")</f>
@@ -13064,7 +12940,7 @@
       </c>
       <c r="I31" s="73">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" s="76">
         <f>VLOOKUP(D31,'Components List'!$C$5:$D$28,2,FALSE())</f>
@@ -13081,12 +12957,12 @@
     </row>
     <row r="32">
       <c r="B32" s="69">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
-        <v>4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="C32" s="70">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89256.0)</f>
-        <v>89256</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),125712.0)</f>
+        <v>125712</v>
       </c>
       <c r="D32" s="70" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DZ_Sys")</f>
@@ -13753,7 +13629,7 @@
       </c>
       <c r="H51" s="55">
         <f t="shared" si="7"/>
-        <v>0.2490321117</v>
+        <v>0.2773983282</v>
       </c>
     </row>
     <row r="52">
@@ -13796,6 +13672,15 @@
       </c>
     </row>
     <row r="61">
+      <c r="B61" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="88" t="s">
+        <v>85</v>
+      </c>
       <c r="E61" s="88" t="str">
         <f t="shared" ref="E61:F61" si="8">G26</f>
         <v>Detectable Fuse Type</v>
@@ -13806,26 +13691,53 @@
       </c>
     </row>
     <row r="62">
+      <c r="B62" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="94">
+        <v>1.0</v>
+      </c>
+      <c r="D62" s="95">
+        <v>3.0</v>
+      </c>
       <c r="E62" s="96" t="str">
         <f t="shared" ref="E62:E65" si="9">VLOOKUP(B62,$E$27:$H$45,3,FALSE)</f>
-        <v>impactless</v>
+        <v>outside_scope</v>
       </c>
       <c r="F62" s="96" t="str">
         <f t="shared" ref="F62:F65" si="10">VLOOKUP(B62,$E$27:$H$45,4,false)</f>
-        <v>impactless</v>
+        <v>no</v>
       </c>
     </row>
     <row r="63">
+      <c r="B63" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="98">
+        <v>1.0</v>
+      </c>
+      <c r="D63" s="99">
+        <v>3.0</v>
+      </c>
       <c r="E63" s="100" t="str">
         <f t="shared" si="9"/>
-        <v>outside_scope</v>
+        <v>impactless</v>
       </c>
       <c r="F63" s="100" t="str">
         <f t="shared" si="10"/>
-        <v>no</v>
+        <v>impactless</v>
       </c>
     </row>
     <row r="64">
+      <c r="B64" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="98">
+        <v>1.0</v>
+      </c>
+      <c r="D64" s="99">
+        <v>3.0</v>
+      </c>
       <c r="E64" s="100" t="str">
         <f t="shared" si="9"/>
         <v>outside_scope</v>
@@ -13836,23 +13748,47 @@
       </c>
     </row>
     <row r="65">
+      <c r="B65" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="102">
+        <v>6.0</v>
+      </c>
+      <c r="D65" s="103">
+        <v>1.0</v>
+      </c>
       <c r="E65" s="104" t="str">
         <f t="shared" si="9"/>
-        <v>yes</v>
+        <v>outside_scope</v>
       </c>
       <c r="F65" s="104" t="str">
         <f t="shared" si="10"/>
-        <v>yes</v>
+        <v>no</v>
       </c>
     </row>
     <row r="66">
+      <c r="B66" s="105" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="D66" s="106">
+        <v>2.0</v>
+      </c>
       <c r="E66" s="92"/>
       <c r="F66" s="92"/>
     </row>
     <row r="67">
-      <c r="B67" s="105"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
+      <c r="B67" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="49">
+        <v>10.0</v>
+      </c>
+      <c r="D67" s="106">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="68">
       <c r="B68" s="105"/>
@@ -13861,7 +13797,7 @@
     </row>
     <row r="69">
       <c r="B69" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C69" s="49"/>
       <c r="D69" s="49"/>
@@ -13959,7 +13895,7 @@
       <formula1>"Uncaught Detectable Failure,Outside Scope Failure,Unsafe Failure Not Detected,Failure Detected,Max Number of Failures"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -13975,48 +13911,48 @@
   <sheetData>
     <row r="3">
       <c r="B3" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F5" s="109" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G5" s="109" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H5" s="109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I5" s="109" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J5" s="109" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K5" s="109" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L5" s="109" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M5" s="109" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N5" s="109" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O5" s="109" t="s">
         <v>18</v>
@@ -14033,7 +13969,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" s="5">
         <v>0.08333</v>
@@ -14067,16 +14003,16 @@
         <v>1.0</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="112" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -14084,7 +14020,7 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D7" s="5">
         <v>0.08333</v>
@@ -14118,16 +14054,16 @@
         <v>1.0</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="112" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -14135,7 +14071,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D8" s="5">
         <v>0.08333</v>
@@ -14169,16 +14105,16 @@
         <v>1.0</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="112" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
@@ -14186,7 +14122,7 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" s="5">
         <v>0.08333</v>
@@ -14220,16 +14156,16 @@
         <v>1.0</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="112" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
@@ -14237,7 +14173,7 @@
         <v>4.0</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" s="5">
         <v>0.08333</v>
@@ -14271,16 +14207,16 @@
         <v>1.0</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="112" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -14288,7 +14224,7 @@
         <v>5.0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D11" s="5">
         <v>0.08333</v>
@@ -14322,16 +14258,16 @@
         <v>1.0</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="112" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -14339,7 +14275,7 @@
         <v>6.0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D12" s="5">
         <v>0.125</v>
@@ -14373,16 +14309,16 @@
         <v>1.0</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q12" s="112" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -14390,7 +14326,7 @@
         <v>7.0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D13" s="5">
         <v>0.125</v>
@@ -14424,16 +14360,16 @@
         <v>1.0</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
@@ -14441,7 +14377,7 @@
         <v>8.0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D14" s="5">
         <v>0.08333</v>
@@ -14475,16 +14411,16 @@
         <v>0.0</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q14" s="112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -14492,7 +14428,7 @@
         <v>9.0</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D15" s="5">
         <v>0.08333</v>
@@ -14526,16 +14462,16 @@
         <v>1.0</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q15" s="112" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -14543,7 +14479,7 @@
         <v>10.0</v>
       </c>
       <c r="C16" s="114" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D16" s="114">
         <v>0.08333</v>
@@ -14577,16 +14513,16 @@
         <v>1.0</v>
       </c>
       <c r="N16" s="114" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O16" s="114" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P16" s="114" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="115" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -14615,43 +14551,43 @@
     </row>
     <row r="5">
       <c r="B5" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>18</v>
@@ -14668,7 +14604,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="116">
         <v>0.45</v>
@@ -14702,16 +14638,16 @@
         <v>1.0</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -14719,7 +14655,7 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" s="116">
         <v>0.2</v>
@@ -14753,16 +14689,16 @@
         <v>1.0</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="Q7" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -14770,7 +14706,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D8" s="116">
         <v>0.04375</v>
@@ -14804,16 +14740,16 @@
         <v>1.0</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
@@ -14821,7 +14757,7 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9" s="116">
         <v>0.04375</v>
@@ -14855,16 +14791,16 @@
         <v>1.0</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10">
@@ -14872,7 +14808,7 @@
         <v>4.0</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D10" s="116">
         <v>0.04375</v>
@@ -14906,16 +14842,16 @@
         <v>1.0</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
@@ -14923,7 +14859,7 @@
         <v>5.0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="D11" s="116">
         <v>0.04375</v>
@@ -14957,16 +14893,16 @@
         <v>1.0</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -15008,16 +14944,16 @@
         <v>1.0</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -15025,7 +14961,7 @@
         <v>7.0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D13" s="116">
         <v>0.04375</v>
@@ -15059,16 +14995,16 @@
         <v>1.0</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -15110,16 +15046,16 @@
         <v>1.0</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -15161,16 +15097,16 @@
         <v>1.0</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18"/>
@@ -15207,43 +15143,43 @@
     </row>
     <row r="5">
       <c r="B5" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>18</v>
@@ -15260,7 +15196,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="116">
         <v>0.29</v>
@@ -15294,16 +15230,16 @@
         <v>1.0</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -15311,7 +15247,7 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" s="116">
         <v>0.51</v>
@@ -15345,16 +15281,16 @@
         <v>0.0</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -15396,16 +15332,16 @@
         <v>0.0</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
@@ -15447,16 +15383,16 @@
         <v>0.0</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
@@ -15498,16 +15434,16 @@
         <v>1.0</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -15549,16 +15485,16 @@
         <v>0.0</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -15600,16 +15536,16 @@
         <v>1.0</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -15651,16 +15587,16 @@
         <v>0.0</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -15681,48 +15617,48 @@
   <sheetData>
     <row r="3">
       <c r="B3" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>18</v>
@@ -15739,7 +15675,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="116">
         <v>0.0785714</v>
@@ -15773,16 +15709,16 @@
         <v>0.0</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -15824,16 +15760,16 @@
         <v>0.0</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -15841,7 +15777,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8" s="116">
         <v>0.0144444</v>
@@ -15875,16 +15811,16 @@
         <v>1.0</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
@@ -15892,7 +15828,7 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D9" s="116">
         <v>0.0633333</v>
@@ -15926,16 +15862,16 @@
         <v>1.0</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
@@ -15977,16 +15913,16 @@
         <v>0.0</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -16028,16 +15964,16 @@
         <v>1.0</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -16079,16 +16015,16 @@
         <v>1.0</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -16130,16 +16066,16 @@
         <v>0.0</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -16181,16 +16117,16 @@
         <v>0.0</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -16232,16 +16168,16 @@
         <v>1.0</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -16283,16 +16219,16 @@
         <v>1.0</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17">
@@ -16334,16 +16270,16 @@
         <v>0.0</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
@@ -16351,7 +16287,7 @@
         <v>12.0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D18" s="116">
         <v>0.0288889</v>
@@ -16385,16 +16321,16 @@
         <v>1.0</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19">
@@ -16436,16 +16372,16 @@
         <v>1.0</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
@@ -16487,16 +16423,16 @@
         <v>1.0</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21">
@@ -16538,16 +16474,16 @@
         <v>1.0</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
@@ -16589,16 +16525,16 @@
         <v>1.0</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
@@ -16640,16 +16576,16 @@
         <v>1.0</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24">
@@ -16691,16 +16627,16 @@
         <v>1.0</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -16742,16 +16678,16 @@
         <v>1.0</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26">
@@ -16793,16 +16729,16 @@
         <v>0.0</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
@@ -16844,16 +16780,16 @@
         <v>1.0</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -16879,43 +16815,43 @@
     </row>
     <row r="5">
       <c r="B5" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>18</v>
@@ -16932,7 +16868,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" s="116">
         <v>0.08333</v>
@@ -16966,16 +16902,16 @@
         <v>1.0</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="Q6" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -16983,7 +16919,7 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D7" s="116">
         <v>0.08333</v>
@@ -17017,16 +16953,16 @@
         <v>1.0</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="Q7" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -17034,7 +16970,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D8" s="116">
         <v>0.08333</v>
@@ -17068,16 +17004,16 @@
         <v>1.0</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="Q8" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
@@ -17085,7 +17021,7 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" s="116">
         <v>0.08333</v>
@@ -17119,16 +17055,16 @@
         <v>1.0</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
@@ -17136,7 +17072,7 @@
         <v>4.0</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" s="116">
         <v>0.08333</v>
@@ -17170,16 +17106,16 @@
         <v>1.0</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -17187,7 +17123,7 @@
         <v>5.0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D11" s="116">
         <v>0.08333</v>
@@ -17221,16 +17157,16 @@
         <v>1.0</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
@@ -17238,7 +17174,7 @@
         <v>6.0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D12" s="116">
         <v>0.125</v>
@@ -17272,16 +17208,16 @@
         <v>1.0</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -17289,7 +17225,7 @@
         <v>7.0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D13" s="116">
         <v>0.125</v>
@@ -17323,16 +17259,16 @@
         <v>1.0</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P13" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="Q13" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -17340,7 +17276,7 @@
         <v>8.0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D14" s="116">
         <v>0.08333</v>
@@ -17374,16 +17310,16 @@
         <v>1.0</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P14" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="Q14" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -17391,7 +17327,7 @@
         <v>9.0</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D15" s="116">
         <v>0.08333</v>
@@ -17425,16 +17361,16 @@
         <v>1.0</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -17442,7 +17378,7 @@
         <v>10.0</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D16" s="116">
         <v>0.08333</v>
@@ -17476,16 +17412,16 @@
         <v>1.0</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/EC3-C++_Fault_Detection/tests/results/RealScenarioTestResults.xlsx
+++ b/EC3-C++_Fault_Detection/tests/results/RealScenarioTestResults.xlsx
@@ -1471,12 +1471,6 @@
     <xf borderId="31" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="31" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1488,6 +1482,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="32" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -13701,11 +13701,11 @@
         <v>3.0</v>
       </c>
       <c r="E62" s="96" t="str">
-        <f t="shared" ref="E62:E65" si="9">VLOOKUP(B62,$E$27:$H$45,3,FALSE)</f>
+        <f t="shared" ref="E62:E66" si="9">VLOOKUP(B62,$E$27:$H$45,3,FALSE)</f>
         <v>outside_scope</v>
       </c>
       <c r="F62" s="96" t="str">
-        <f t="shared" ref="F62:F65" si="10">VLOOKUP(B62,$E$27:$H$45,4,false)</f>
+        <f t="shared" ref="F62:F66" si="10">VLOOKUP(B62,$E$27:$H$45,4,false)</f>
         <v>no</v>
       </c>
     </row>
@@ -13751,47 +13751,55 @@
       <c r="B65" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="102">
+      <c r="C65" s="98">
         <v>6.0</v>
       </c>
-      <c r="D65" s="103">
+      <c r="D65" s="99">
         <v>1.0</v>
       </c>
-      <c r="E65" s="104" t="str">
+      <c r="E65" s="102" t="str">
         <f t="shared" si="9"/>
         <v>outside_scope</v>
       </c>
-      <c r="F65" s="104" t="str">
+      <c r="F65" s="102" t="str">
         <f t="shared" si="10"/>
         <v>no</v>
       </c>
     </row>
     <row r="66">
-      <c r="B66" s="105" t="s">
+      <c r="B66" s="103" t="s">
         <v>101</v>
       </c>
       <c r="C66" s="49">
         <v>1.0</v>
       </c>
-      <c r="D66" s="106">
+      <c r="D66" s="104">
         <v>2.0</v>
       </c>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
+      <c r="E66" s="100" t="str">
+        <f t="shared" si="9"/>
+        <v>yes</v>
+      </c>
+      <c r="F66" s="100" t="str">
+        <f t="shared" si="10"/>
+        <v>yes</v>
+      </c>
     </row>
     <row r="67">
-      <c r="B67" s="105" t="s">
+      <c r="B67" s="103" t="s">
         <v>79</v>
       </c>
       <c r="C67" s="49">
         <v>10.0</v>
       </c>
-      <c r="D67" s="106">
+      <c r="D67" s="104">
         <v>1.7</v>
       </c>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
     </row>
     <row r="68">
-      <c r="B68" s="105"/>
+      <c r="B68" s="103"/>
       <c r="C68" s="49"/>
       <c r="D68" s="49"/>
     </row>
@@ -13803,7 +13811,7 @@
       <c r="D69" s="49"/>
     </row>
     <row r="70">
-      <c r="B70" s="105"/>
+      <c r="B70" s="103"/>
       <c r="C70" s="49"/>
       <c r="D70" s="49"/>
     </row>
@@ -13848,11 +13856,11 @@
       </c>
     </row>
     <row r="75">
-      <c r="E75" s="104" t="str">
+      <c r="E75" s="102" t="str">
         <f t="shared" si="12"/>
         <v>no</v>
       </c>
-      <c r="F75" s="104" t="str">
+      <c r="F75" s="102" t="str">
         <f t="shared" si="13"/>
         <v>yes</v>
       </c>
@@ -13862,22 +13870,22 @@
       <c r="F76" s="92"/>
     </row>
     <row r="77">
-      <c r="B77" s="105"/>
+      <c r="B77" s="103"/>
       <c r="C77" s="49"/>
       <c r="D77" s="49"/>
     </row>
     <row r="78">
-      <c r="B78" s="105"/>
+      <c r="B78" s="103"/>
       <c r="C78" s="49"/>
       <c r="D78" s="49"/>
     </row>
     <row r="79">
-      <c r="B79" s="105"/>
+      <c r="B79" s="103"/>
       <c r="C79" s="49"/>
       <c r="D79" s="49"/>
     </row>
     <row r="80">
-      <c r="B80" s="105"/>
+      <c r="B80" s="103"/>
       <c r="C80" s="49"/>
       <c r="D80" s="49"/>
     </row>
